--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t xml:space="preserve">1.  Carátula ( logo de la FIUBA, titulo del trabajo, identificación de los autores ), </t>
   </si>
@@ -205,13 +205,28 @@
   </si>
   <si>
     <t>Juan</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>Sin comenzar</t>
+  </si>
+  <si>
+    <t>En proceso</t>
+  </si>
+  <si>
+    <t>Falta dar cierre</t>
+  </si>
+  <si>
+    <t>Terminado y Verificado por el compañero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,21 +247,72 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -257,10 +323,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -556,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:D61"/>
+  <dimension ref="C1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -568,84 +642,66 @@
     <col min="4" max="4" width="88.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:4">
+      <c r="C1" s="8"/>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="2" spans="3:4">
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="3:4">
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
+      <c r="C3" s="6"/>
+      <c r="D3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="3:4">
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
+      <c r="C4" s="5"/>
+      <c r="D4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
+      <c r="C5" s="9"/>
+      <c r="D5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="3:4">
       <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
+      <c r="D10" s="10" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -653,293 +709,341 @@
         <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="D21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="D23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="D24" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="D25" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="D26" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="D28" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="3:4">
-      <c r="D29" s="1" t="s">
-        <v>26</v>
+      <c r="D29" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="3:4">
-      <c r="D32" s="2" t="s">
-        <v>29</v>
+      <c r="D32" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="1" t="s">
-        <v>33</v>
+      <c r="D36" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="4:4">
-      <c r="D37" s="1" t="s">
-        <v>34</v>
+      <c r="D37" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="1" t="s">
-        <v>35</v>
+      <c r="D38" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="2" t="s">
-        <v>37</v>
+      <c r="D40" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="2" t="s">
-        <v>38</v>
+      <c r="D41" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="2" t="s">
-        <v>39</v>
+      <c r="D42" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="4:4">
-      <c r="D43" s="2" t="s">
-        <v>40</v>
+      <c r="D43" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="4:4">
-      <c r="D46" s="1" t="s">
-        <v>43</v>
+      <c r="D46" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="4:4">
-      <c r="D47" s="1" t="s">
-        <v>44</v>
+      <c r="D47" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="4:4">
-      <c r="D48" s="1" t="s">
-        <v>45</v>
+      <c r="D48" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="4:4">
-      <c r="D49" s="1" t="s">
-        <v>46</v>
+      <c r="D49" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="1" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" display="http://7.1.1./"/>
-    <hyperlink ref="D19" r:id="rId2" display="http://7.2.1./"/>
-    <hyperlink ref="D20" r:id="rId3" display="http://7.2.2./"/>
-    <hyperlink ref="D23" r:id="rId4" display="http://8.1.1./"/>
-    <hyperlink ref="D24" r:id="rId5" display="http://8.1.2./"/>
-    <hyperlink ref="D25" r:id="rId6" display="http://8.1.3./"/>
-    <hyperlink ref="D30" r:id="rId7" display="http://9.2.3./"/>
-    <hyperlink ref="D31" r:id="rId8" display="http://9.2.4./"/>
-    <hyperlink ref="D32" r:id="rId9" display="http://9.2.5./"/>
-    <hyperlink ref="D40" r:id="rId10" display="http://11.1.1./"/>
-    <hyperlink ref="D41" r:id="rId11" display="http://11.1.2./"/>
-    <hyperlink ref="D42" r:id="rId12" display="http://11.1.3./"/>
-    <hyperlink ref="D43" r:id="rId13" display="http://11.1.4./"/>
+    <hyperlink ref="D22" r:id="rId1" display="http://7.1.1./"/>
+    <hyperlink ref="D25" r:id="rId2" display="http://7.2.1./"/>
+    <hyperlink ref="D26" r:id="rId3" display="http://7.2.2./"/>
+    <hyperlink ref="D29" r:id="rId4" display="http://8.1.1./"/>
+    <hyperlink ref="D30" r:id="rId5" display="http://8.1.2./"/>
+    <hyperlink ref="D31" r:id="rId6" display="http://8.1.3./"/>
+    <hyperlink ref="D36" r:id="rId7" display="http://9.2.3./"/>
+    <hyperlink ref="D37" r:id="rId8" display="http://9.2.4./"/>
+    <hyperlink ref="D38" r:id="rId9" display="http://9.2.5./"/>
+    <hyperlink ref="D46" r:id="rId10" display="http://11.1.1./"/>
+    <hyperlink ref="D47" r:id="rId11" display="http://11.1.2./"/>
+    <hyperlink ref="D48" r:id="rId12" display="http://11.1.3./"/>
+    <hyperlink ref="D49" r:id="rId13" display="http://11.1.4./"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t xml:space="preserve">1.  Carátula ( logo de la FIUBA, titulo del trabajo, identificación de los autores ), </t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Terminado y Verificado por el compañero</t>
+  </si>
+  <si>
+    <t>falta realizar el calculo de lineas simultaneas que pueden haber, en funcion del total de internos.</t>
   </si>
 </sst>
 </file>
@@ -630,16 +633,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:D67"/>
+  <dimension ref="C1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4">
@@ -744,7 +748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:5">
       <c r="C17" t="s">
         <v>61</v>
       </c>
@@ -752,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>61</v>
       </c>
@@ -760,7 +764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:5">
       <c r="C19" t="s">
         <v>61</v>
       </c>
@@ -768,7 +772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:5">
       <c r="C20" t="s">
         <v>62</v>
       </c>
@@ -776,7 +780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="3:5">
       <c r="C21" t="s">
         <v>62</v>
       </c>
@@ -784,7 +788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:5">
       <c r="C22" t="s">
         <v>62</v>
       </c>
@@ -792,15 +796,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="3:5">
       <c r="C23" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="3:4">
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
       <c r="C24" t="s">
         <v>62</v>
       </c>
@@ -808,7 +815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="3:5">
       <c r="C25" t="s">
         <v>62</v>
       </c>
@@ -816,7 +823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:5">
       <c r="C26" t="s">
         <v>62</v>
       </c>
@@ -824,32 +831,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="3:5">
       <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:5">
       <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:5">
       <c r="D29" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="3:5">
       <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:5">
       <c r="D31" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="3:5">
       <c r="D32" s="1" t="s">
         <v>23</v>
       </c>

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -16,62 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
-  <si>
-    <t xml:space="preserve">1.  Carátula ( logo de la FIUBA, titulo del trabajo, identificación de los autores ), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.  Prefacio, agradecimientos. ( opcional ). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.  Índice detallado (1 a 2 páginas, 30 a 60 entradas con número de página, desde Introducción ). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.  Resumen ( opcional ) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Introducción </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1. Historia. Antecedentes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2. Definiciones. Glosario de términos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3. Justificación del proyecto. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.  Objetivos. ( Propuesta técnica ) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1. Finalidad del proyecto ( a quien ayuda, para que sirve) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2. Planteamiento del problema a resolver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.  Definición de Producto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1. Requerimientos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1.1. Construcción de la Casa de calidad ( análisis de valor y competitividad ) </t>
-  </si>
-  <si>
-    <t>7.2. Especificaciones funcionales y de diseño:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>Comparacion</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2.1. Especificaciones del hard </t>
-  </si>
-  <si>
-    <t>7.2.2. Especificación del sofá ( interfaces y protocolos )</t>
-  </si>
-  <si>
     <t xml:space="preserve">8. Análisis de Factibilidad </t>
   </si>
   <si>
@@ -222,14 +171,107 @@
     <t>Terminado y Verificado por el compañero</t>
   </si>
   <si>
-    <t>falta realizar el calculo de lineas simultaneas que pueden haber, en funcion del total de internos.</t>
+    <t xml:space="preserve">Eliminado, se repite mas adelante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0  Carátula ( logo de la FIUBA, titulo del trabajo, identificación de los autores ), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Introducción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.  Índice detallado (1 a 2 páginas, 30 a 60 entradas con número de página, desde Introducción ). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.  Prefacio, agradecimientos. ( opcional ). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.  Resumen ( opcional ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1. Historia. Antecedentes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2. Definiciones. Glosario de términos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3. Justificación del proyecto. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.  Alcances del Proyecto.Objetivos. ( Propuesta técnica ) </t>
+  </si>
+  <si>
+    <t>2.1 Objetivos</t>
+  </si>
+  <si>
+    <t>2.1.1 IP-PBX</t>
+  </si>
+  <si>
+    <t>2.1.2 Interconexion con la PSTN</t>
+  </si>
+  <si>
+    <t>2..1.3 Terminales de Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 Finalidad del proyecto ( a quien ayuda, para que sirve) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3. Planteamiento del problema a resolver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.  Definición de Producto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1. Requerimientos del Usuario </t>
+  </si>
+  <si>
+    <t>3.1.1. Costos</t>
+  </si>
+  <si>
+    <t>3.1.2 Dimensiones</t>
+  </si>
+  <si>
+    <t>3.1.3 Confiabilidad</t>
+  </si>
+  <si>
+    <t>3.1.4 Facil Uso</t>
+  </si>
+  <si>
+    <t>3.1.5 Bajo consumo de energia</t>
+  </si>
+  <si>
+    <t>3.1.6 Mantenimiento</t>
+  </si>
+  <si>
+    <t>3.1.7 Escalabilidad</t>
+  </si>
+  <si>
+    <t>3.2 Espesificaciones Funcionales y de Diseño</t>
+  </si>
+  <si>
+    <t>3.2.1 Cantidad de internos que se pueden registrar</t>
+  </si>
+  <si>
+    <t>3.2.2 Cantidad de llamadas simultáneas</t>
+  </si>
+  <si>
+    <t>3.2.3 Seguridad</t>
+  </si>
+  <si>
+    <t>3.2.4 Interconexion</t>
+  </si>
+  <si>
+    <t>3.2.5 Confiabilidad</t>
+  </si>
+  <si>
+    <t>3.3 Construccion de la casa de calidad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,8 +298,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,8 +349,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -318,6 +379,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -326,18 +402,25 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -633,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:E67"/>
+  <dimension ref="C1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -647,413 +730,559 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:4">
-      <c r="C1" s="8"/>
+      <c r="C1" s="7"/>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="3:4">
-      <c r="C2" s="7"/>
+      <c r="C2" s="6"/>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="3:4">
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="3:4">
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="9"/>
+      <c r="C5" s="8"/>
       <c r="D5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="15.75" thickBot="1">
       <c r="C8" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="15.75" thickBot="1">
       <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
+        <v>44</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="15.75" thickBot="1">
       <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
+        <v>44</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="15.75" thickBot="1">
       <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
+        <v>44</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="15.75" thickBot="1">
       <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
+        <v>44</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="15.75" thickBot="1">
       <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>5</v>
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="15.75" thickBot="1">
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="3:5" ht="15.75" thickBot="1">
       <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="20" spans="3:5">
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="D21" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="D22" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="15.75" customHeight="1">
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="15.75" thickBot="1">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="15.75" thickBot="1">
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="3:5" ht="15.75" thickBot="1">
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="3:4" ht="14.25" customHeight="1">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="D53" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="D54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="D55" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="D56" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="D57" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="D58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="D59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="D61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="D62" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="1" t="s">
+    <row r="63" spans="3:4">
+      <c r="D63" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="1" t="s">
+    <row r="64" spans="3:4">
+      <c r="D64" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="D27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="D28" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="D29" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="D30" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="D31" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="D32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4">
-      <c r="D40" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4">
-      <c r="D41" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4">
-      <c r="D42" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4">
-      <c r="D43" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4">
-      <c r="D44" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4">
-      <c r="D45" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4">
-      <c r="D47" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4">
-      <c r="D48" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4">
-      <c r="D61" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1" display="http://7.1.1./"/>
-    <hyperlink ref="D25" r:id="rId2" display="http://7.2.1./"/>
-    <hyperlink ref="D26" r:id="rId3" display="http://7.2.2./"/>
-    <hyperlink ref="D29" r:id="rId4" display="http://8.1.1./"/>
-    <hyperlink ref="D30" r:id="rId5" display="http://8.1.2./"/>
-    <hyperlink ref="D31" r:id="rId6" display="http://8.1.3./"/>
-    <hyperlink ref="D36" r:id="rId7" display="http://9.2.3./"/>
-    <hyperlink ref="D37" r:id="rId8" display="http://9.2.4./"/>
-    <hyperlink ref="D38" r:id="rId9" display="http://9.2.5./"/>
-    <hyperlink ref="D46" r:id="rId10" display="http://11.1.1./"/>
-    <hyperlink ref="D47" r:id="rId11" display="http://11.1.2./"/>
-    <hyperlink ref="D48" r:id="rId12" display="http://11.1.3./"/>
-    <hyperlink ref="D49" r:id="rId13" display="http://11.1.4./"/>
+    <hyperlink ref="D55" r:id="rId1" display="http://8.1.1./"/>
+    <hyperlink ref="D56" r:id="rId2" display="http://8.1.2./"/>
+    <hyperlink ref="D57" r:id="rId3" display="http://8.1.3./"/>
+    <hyperlink ref="D62" r:id="rId4" display="http://9.2.3./"/>
+    <hyperlink ref="D63" r:id="rId5" display="http://9.2.4./"/>
+    <hyperlink ref="D64" r:id="rId6" display="http://9.2.5./"/>
+    <hyperlink ref="D72" r:id="rId7" display="http://11.1.1./"/>
+    <hyperlink ref="D73" r:id="rId8" display="http://11.1.2./"/>
+    <hyperlink ref="D74" r:id="rId9" display="http://11.1.3./"/>
+    <hyperlink ref="D75" r:id="rId10" display="http://11.1.4./"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
   <si>
     <t>Comparacion</t>
   </si>
@@ -261,10 +261,25 @@
     <t>3.2.4 Interconexion</t>
   </si>
   <si>
-    <t>3.2.5 Confiabilidad</t>
-  </si>
-  <si>
     <t>3.3 Construccion de la casa de calidad</t>
+  </si>
+  <si>
+    <t>3.2.5 Cantidad de internos que se pueden registrar</t>
+  </si>
+  <si>
+    <t>3.2.6 Cantidad de llamadas simultáneas</t>
+  </si>
+  <si>
+    <t>3.2.7 Seguridad</t>
+  </si>
+  <si>
+    <t>3.2.8 Interconexión</t>
+  </si>
+  <si>
+    <t>3.4 Especificaciones del hardware</t>
+  </si>
+  <si>
+    <t>3.5 Especificación del software ( interfaces y protocolos )</t>
   </si>
 </sst>
 </file>
@@ -716,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:E93"/>
+  <dimension ref="C1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1005,7 +1020,7 @@
         <v>45</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="3:4">
@@ -1013,273 +1028,298 @@
         <v>45</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="3:4">
-      <c r="D42" s="1"/>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="43" spans="3:4">
-      <c r="D43" s="1"/>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="44" spans="3:4">
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="3:4">
-      <c r="D45" s="1"/>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="46" spans="3:4">
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="3:4">
-      <c r="D47" s="1"/>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="48" spans="3:4">
-      <c r="C48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="3:4" ht="14.25" customHeight="1">
-      <c r="D49" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="50" spans="3:4">
-      <c r="C50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="3:4">
-      <c r="C52" t="s">
-        <v>45</v>
-      </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="3:4">
-      <c r="D53" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="53" spans="3:4" ht="14.25" customHeight="1">
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="3:4">
       <c r="D54" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="3:4">
-      <c r="D55" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="3:4">
-      <c r="D56" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="3:4">
-      <c r="D57" s="2" t="s">
-        <v>5</v>
+      <c r="D57" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="3:4">
       <c r="D58" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="D59" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="D60" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="D61" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="D62" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="3:4">
-      <c r="D59" s="1" t="s">
+    <row r="63" spans="3:4">
+      <c r="D63" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="3:4">
-      <c r="D60" s="1" t="s">
+    <row r="64" spans="3:4">
+      <c r="D64" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="D61" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4">
-      <c r="D62" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4">
-      <c r="D63" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4">
-      <c r="D64" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="4:4">
-      <c r="D66" s="1" t="s">
-        <v>14</v>
+      <c r="D66" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="4:4">
-      <c r="D67" s="1" t="s">
-        <v>15</v>
+      <c r="D67" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="4:4">
-      <c r="D68" s="1" t="s">
-        <v>16</v>
+      <c r="D68" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="4:4">
-      <c r="D72" s="2" t="s">
+    <row r="76" spans="4:4">
+      <c r="D76" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="4:4">
-      <c r="D73" s="2" t="s">
+    <row r="77" spans="4:4">
+      <c r="D77" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="4:4">
-      <c r="D74" s="2" t="s">
+    <row r="78" spans="4:4">
+      <c r="D78" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="4:4">
-      <c r="D75" s="2" t="s">
+    <row r="79" spans="4:4">
+      <c r="D79" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4">
-      <c r="D76" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4">
-      <c r="D77" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="4:4">
-      <c r="D78" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="4:4">
-      <c r="D79" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="4:4">
       <c r="D89" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="4:4">
       <c r="D90" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="1" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D55" r:id="rId1" display="http://8.1.1./"/>
-    <hyperlink ref="D56" r:id="rId2" display="http://8.1.2./"/>
-    <hyperlink ref="D57" r:id="rId3" display="http://8.1.3./"/>
-    <hyperlink ref="D62" r:id="rId4" display="http://9.2.3./"/>
-    <hyperlink ref="D63" r:id="rId5" display="http://9.2.4./"/>
-    <hyperlink ref="D64" r:id="rId6" display="http://9.2.5./"/>
-    <hyperlink ref="D72" r:id="rId7" display="http://11.1.1./"/>
-    <hyperlink ref="D73" r:id="rId8" display="http://11.1.2./"/>
-    <hyperlink ref="D74" r:id="rId9" display="http://11.1.3./"/>
-    <hyperlink ref="D75" r:id="rId10" display="http://11.1.4./"/>
+    <hyperlink ref="D59" r:id="rId1" display="http://8.1.1./"/>
+    <hyperlink ref="D60" r:id="rId2" display="http://8.1.2./"/>
+    <hyperlink ref="D61" r:id="rId3" display="http://8.1.3./"/>
+    <hyperlink ref="D66" r:id="rId4" display="http://9.2.3./"/>
+    <hyperlink ref="D67" r:id="rId5" display="http://9.2.4./"/>
+    <hyperlink ref="D68" r:id="rId6" display="http://9.2.5./"/>
+    <hyperlink ref="D76" r:id="rId7" display="http://11.1.1./"/>
+    <hyperlink ref="D77" r:id="rId8" display="http://11.1.2./"/>
+    <hyperlink ref="D78" r:id="rId9" display="http://11.1.3./"/>
+    <hyperlink ref="D79" r:id="rId10" display="http://11.1.4./"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
